--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1671721C-FFB0-4510-A61A-92439B1274AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD82D65-6AE2-4057-8EDD-43E694422076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="382">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
@@ -838,9 +838,6 @@
   </si>
   <si>
     <t>tab_event_creation_Review</t>
-  </si>
-  <si>
-    <t>button_event_creation_cCreate</t>
   </si>
   <si>
     <t>searchtext_event_core_tab_creation_Countrysearch</t>
@@ -1506,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LW2"/>
+  <dimension ref="A1:LV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KR1" workbookViewId="0">
-      <selection activeCell="KW1" sqref="KW1"/>
+    <sheetView tabSelected="1" topLeftCell="LS1" workbookViewId="0">
+      <selection activeCell="LW1" sqref="LW1:LW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1798,10 +1795,9 @@
     <col min="332" max="332" width="24.875" bestFit="1" customWidth="1"/>
     <col min="333" max="333" width="37.5" bestFit="1" customWidth="1"/>
     <col min="334" max="334" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:335" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:334" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1836,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1845,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -1863,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
@@ -1872,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>19</v>
@@ -1896,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>26</v>
@@ -1905,34 +1901,34 @@
         <v>27</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>31</v>
@@ -1944,58 +1940,58 @@
         <v>33</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>42</v>
@@ -2019,7 +2015,7 @@
         <v>48</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>49</v>
@@ -2103,7 +2099,7 @@
         <v>75</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CX1" s="1" t="s">
         <v>76</v>
@@ -2112,16 +2108,16 @@
         <v>77</v>
       </c>
       <c r="CZ1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="DD1" s="1" t="s">
         <v>78</v>
@@ -2133,31 +2129,31 @@
         <v>80</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="DI1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="DK1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="DM1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DN1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="DO1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="DP1" s="1" t="s">
         <v>84</v>
@@ -2217,7 +2213,7 @@
         <v>102</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="EJ1" s="1" t="s">
         <v>103</v>
@@ -2229,7 +2225,7 @@
         <v>105</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="EN1" s="1" t="s">
         <v>106</v>
@@ -2241,7 +2237,7 @@
         <v>108</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>109</v>
@@ -2253,7 +2249,7 @@
         <v>111</v>
       </c>
       <c r="EU1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="EV1" s="1" t="s">
         <v>112</v>
@@ -2265,7 +2261,7 @@
         <v>114</v>
       </c>
       <c r="EY1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="EZ1" s="1" t="s">
         <v>115</v>
@@ -2286,19 +2282,19 @@
         <v>120</v>
       </c>
       <c r="FF1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="FG1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="FK1" s="1" t="s">
         <v>121</v>
@@ -2307,10 +2303,10 @@
         <v>122</v>
       </c>
       <c r="FM1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FN1" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="FO1" s="1" t="s">
         <v>123</v>
@@ -2415,7 +2411,7 @@
         <v>156</v>
       </c>
       <c r="GW1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="GX1" s="1" t="s">
         <v>157</v>
@@ -2433,10 +2429,10 @@
         <v>161</v>
       </c>
       <c r="HC1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="HD1" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="HE1" s="1" t="s">
         <v>162</v>
@@ -2481,7 +2477,7 @@
         <v>175</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="HT1" s="1" t="s">
         <v>176</v>
@@ -2490,7 +2486,7 @@
         <v>177</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="HW1" s="1" t="s">
         <v>178</v>
@@ -2547,7 +2543,7 @@
         <v>195</v>
       </c>
       <c r="IO1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="IP1" s="1" t="s">
         <v>196</v>
@@ -2559,7 +2555,7 @@
         <v>198</v>
       </c>
       <c r="IS1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="IT1" s="1" t="s">
         <v>199</v>
@@ -2568,7 +2564,7 @@
         <v>200</v>
       </c>
       <c r="IV1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="IW1" s="1" t="s">
         <v>201</v>
@@ -2691,7 +2687,7 @@
         <v>240</v>
       </c>
       <c r="KK1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="KL1" s="1" t="s">
         <v>241</v>
@@ -2700,7 +2696,7 @@
         <v>242</v>
       </c>
       <c r="KN1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="KO1" s="1" t="s">
         <v>243</v>
@@ -2709,7 +2705,7 @@
         <v>244</v>
       </c>
       <c r="KQ1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="KR1" s="1" t="s">
         <v>245</v>
@@ -2745,25 +2741,25 @@
         <v>255</v>
       </c>
       <c r="LC1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="LD1" s="1" t="s">
         <v>256</v>
       </c>
       <c r="LE1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="LF1" s="1" t="s">
         <v>257</v>
       </c>
       <c r="LG1" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="LH1" s="1" t="s">
         <v>258</v>
       </c>
       <c r="LI1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="LJ1" s="1" t="s">
         <v>259</v>
@@ -2775,10 +2771,10 @@
         <v>261</v>
       </c>
       <c r="LM1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="LN1" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="LO1" s="1" t="s">
         <v>262</v>
@@ -2804,1015 +2800,1009 @@
       <c r="LV1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="LW1" s="1" t="s">
-        <v>270</v>
-      </c>
     </row>
-    <row r="2" spans="1:335" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:334" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O2" t="s">
         <v>307</v>
       </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J2" t="s">
-        <v>303</v>
-      </c>
-      <c r="K2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" t="s">
-        <v>303</v>
-      </c>
-      <c r="M2" t="s">
-        <v>303</v>
-      </c>
-      <c r="N2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R2" t="s">
+        <v>302</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" t="s">
         <v>308</v>
       </c>
-      <c r="P2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>303</v>
-      </c>
-      <c r="R2" t="s">
-        <v>303</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" t="s">
+        <v>302</v>
+      </c>
+      <c r="W2" t="s">
+        <v>302</v>
+      </c>
+      <c r="X2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>326</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="T2" t="s">
-        <v>303</v>
-      </c>
-      <c r="U2" t="s">
-        <v>309</v>
-      </c>
-      <c r="V2" t="s">
-        <v>303</v>
-      </c>
-      <c r="W2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="BQ2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BU2" t="s">
         <v>310</v>
       </c>
-      <c r="Y2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BV2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>329</v>
+      </c>
+      <c r="CN2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="AW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BD2" s="2" t="s">
+      <c r="CP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>330</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>302</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>336</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>339</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DQ2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DR2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>344</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>345</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EI2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH2" s="2" t="s">
+      <c r="EJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>346</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>347</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>302</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>302</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>348</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FB2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>319</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>311</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>330</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>331</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>337</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>340</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
+      <c r="FC2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FD2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>354</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="FY2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GN2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GP2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GR2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>357</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>302</v>
+      </c>
+      <c r="GZ2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>360</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>348</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="HX2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="HY2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="HZ2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IA2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IB2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IC2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="ID2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IE2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IH2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="II2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IJ2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>361</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>360</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>348</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="IX2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IY2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="IZ2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JA2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JB2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JC2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JD2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JE2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="DR2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>345</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>346</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>347</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>348</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>303</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>303</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EU2" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>349</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FB2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="FC2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="FD2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>355</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="FY2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GN2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GP2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GR2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>358</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="GZ2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>361</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>349</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="HX2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="HY2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="HZ2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IA2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IB2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IC2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="ID2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IE2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IH2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="II2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IJ2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IO2" t="s">
+      <c r="JF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JJ2" t="s">
         <v>362</v>
       </c>
-      <c r="IP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>361</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>349</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="IX2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IY2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="IZ2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JA2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JB2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JC2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JD2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JE2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JJ2" t="s">
+      <c r="JK2" t="s">
         <v>363</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="JL2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JP2" t="s">
         <v>364</v>
       </c>
-      <c r="JL2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JP2" t="s">
+      <c r="JQ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JT2" t="s">
         <v>365</v>
       </c>
-      <c r="JQ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JT2" t="s">
+      <c r="JU2" t="s">
         <v>366</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="JV2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JW2" t="s">
         <v>367</v>
       </c>
-      <c r="JV2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JW2" t="s">
+      <c r="JX2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>302</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KG2" t="s">
         <v>368</v>
       </c>
-      <c r="JX2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KG2" t="s">
+      <c r="KH2" t="s">
         <v>369</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="KI2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KK2" t="s">
         <v>370</v>
       </c>
-      <c r="KI2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="KL2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KN2" t="s">
         <v>371</v>
       </c>
-      <c r="KL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KN2" t="s">
+      <c r="KO2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>310</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>302</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>302</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>302</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="LC2" t="s">
         <v>372</v>
       </c>
-      <c r="KO2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>311</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>303</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>303</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>303</v>
-      </c>
-      <c r="LC2" t="s">
+      <c r="LD2" t="s">
+        <v>302</v>
+      </c>
+      <c r="LE2" t="s">
         <v>373</v>
       </c>
-      <c r="LD2" t="s">
-        <v>303</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>374</v>
-      </c>
       <c r="LF2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LG2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LH2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LI2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LJ2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LK2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LL2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LM2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LN2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LO2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LP2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LQ2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LR2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="LS2" t="s">
+        <v>378</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>302</v>
+      </c>
+      <c r="LU2" t="s">
         <v>379</v>
       </c>
-      <c r="LT2" t="s">
-        <v>303</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>380</v>
-      </c>
       <c r="LV2" t="s">
-        <v>303</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD82D65-6AE2-4057-8EDD-43E694422076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344200CE-2D8C-4874-BAA4-78B472A8E671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:LV2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="LS1" workbookViewId="0">
-      <selection activeCell="LW1" sqref="LW1:LW1048576"/>
+      <selection activeCell="LV1" sqref="LV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07628253-C715-4E0A-B3EF-BFD7789245A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1099DB-D299-4D14-8CE3-37AF67EC4FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="387">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
@@ -1183,6 +1183,12 @@
   </si>
   <si>
     <t>text_event_creation_MatchConfiguration__BestOfXGames</t>
+  </si>
+  <si>
+    <t>filebutton_event_core_tab_creation_TournamentLogo</t>
+  </si>
+  <si>
+    <t>loginpage.png</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LX2"/>
+  <dimension ref="A1:LY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DR1" workbookViewId="0">
-      <selection activeCell="DS3" sqref="DS3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1535,280 +1541,281 @@
     <col min="20" max="20" width="41.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="50.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.75" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="52" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="52" customWidth="1"/>
-    <col min="43" max="43" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="81.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="44.75" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="66.375" customWidth="1"/>
-    <col min="76" max="76" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="52" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="52.875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="52" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="52" customWidth="1"/>
-    <col min="91" max="91" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="44.75" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="33" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="119" width="57.375" customWidth="1"/>
-    <col min="120" max="120" width="34" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="58.375" customWidth="1"/>
-    <col min="124" max="125" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="133" max="135" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="138" max="139" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="52" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="33" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="96.75" customWidth="1"/>
-    <col min="172" max="172" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="61" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="43" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="189" max="191" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="195" max="196" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="100.625" customWidth="1"/>
-    <col min="202" max="202" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="34" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="43" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="76.375" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="61" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="67.375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="70" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="81.75" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="84.5" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="95.25" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="61" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="71" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="83.625" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="261" max="262" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="67.375" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="52" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="96.25" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="97.125" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="82.625" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="34" bestFit="1" customWidth="1"/>
-    <col min="295" max="296" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="71" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="36.625" hidden="1" customWidth="1"/>
-    <col min="308" max="308" width="32.125" hidden="1" customWidth="1"/>
-    <col min="309" max="309" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="52" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="61" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="49.25" customWidth="1"/>
-    <col min="322" max="322" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="47.5" customWidth="1"/>
-    <col min="324" max="324" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="62.875" bestFit="1" customWidth="1"/>
-    <col min="329" max="330" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53.75" customWidth="1"/>
+    <col min="24" max="24" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="52" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="52" customWidth="1"/>
+    <col min="44" max="44" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="66.375" customWidth="1"/>
+    <col min="77" max="77" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="52" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="52" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="52" customWidth="1"/>
+    <col min="92" max="92" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="33" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="57.375" customWidth="1"/>
+    <col min="121" max="121" width="34" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="58.375" customWidth="1"/>
+    <col min="125" max="126" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="52" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="33" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="96.75" customWidth="1"/>
+    <col min="173" max="173" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="61" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="43" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="190" max="192" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="100.625" customWidth="1"/>
+    <col min="203" max="203" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="34" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="43" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="61" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="70" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="95.25" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="61" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="71" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="265" max="266" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="52" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="96.25" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="97.125" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="82.625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="34" bestFit="1" customWidth="1"/>
+    <col min="296" max="297" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="71" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="36.625" hidden="1" customWidth="1"/>
+    <col min="309" max="309" width="32.125" hidden="1" customWidth="1"/>
+    <col min="310" max="310" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="52" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="61" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="49.25" customWidth="1"/>
+    <col min="323" max="323" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="47.5" customWidth="1"/>
+    <col min="325" max="325" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="330" max="331" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:336" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:337" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1876,949 +1883,952 @@
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GP1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="GR1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="GS1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="GT1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="GU1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="GV1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GW1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="GX1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="GY1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HC1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="HD1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HE1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HF1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="II1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="IN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="IP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="IZ1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JB1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JD1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c r="JX1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c r="KA1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KB1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KC1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c r="KD1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="KD1" s="1" t="s">
+      <c r="KE1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="KE1" s="1" t="s">
+      <c r="KF1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c r="KK1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c r="KL1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c r="KM1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c r="KN1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c r="KO1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c r="KQ1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="KR1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="KS1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="KT1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KU1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c r="KX1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c r="KY1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c r="KZ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c r="LA1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c r="LB1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c r="LC1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c r="LD1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c r="LE1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c r="LF1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c r="LG1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="LH1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c r="LI1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="LI1" s="1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="LK1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="LK1" s="1" t="s">
+      <c r="LL1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="LL1" s="1" t="s">
+      <c r="LM1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="LM1" s="1" t="s">
+      <c r="LN1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="LN1" s="1" t="s">
+      <c r="LO1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="LP1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LQ1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="LQ1" s="1" t="s">
+      <c r="LR1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="LR1" s="1" t="s">
+      <c r="LS1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="LS1" s="1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="LU1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="LV1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="LW1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="LX1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c r="LY1" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:336" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:337" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -2886,14 +2896,14 @@
         <v>301</v>
       </c>
       <c r="W2" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="X2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y2" t="s">
         <v>308</v>
       </c>
-      <c r="Y2" t="s">
-        <v>301</v>
-      </c>
       <c r="Z2" t="s">
         <v>301</v>
       </c>
@@ -2913,32 +2923,32 @@
         <v>301</v>
       </c>
       <c r="AF2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG2" t="s">
         <v>309</v>
       </c>
-      <c r="AG2" t="s">
-        <v>301</v>
-      </c>
       <c r="AH2" t="s">
         <v>301</v>
       </c>
       <c r="AI2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>314</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>301</v>
-      </c>
       <c r="AK2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL2" t="s">
         <v>315</v>
       </c>
-      <c r="AL2" t="s">
-        <v>301</v>
-      </c>
       <c r="AM2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN2" t="s">
         <v>310</v>
       </c>
-      <c r="AN2" t="s">
-        <v>301</v>
-      </c>
       <c r="AO2" t="s">
         <v>301</v>
       </c>
@@ -2949,65 +2959,65 @@
         <v>301</v>
       </c>
       <c r="AR2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS2" t="s">
         <v>316</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="AW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY2" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BA2" t="s">
-        <v>301</v>
-      </c>
       <c r="BB2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BC2" t="s">
         <v>325</v>
       </c>
-      <c r="BC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BE2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BE2" t="s">
-        <v>301</v>
-      </c>
       <c r="BF2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG2" t="s">
         <v>325</v>
       </c>
-      <c r="BG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="BI2" t="s">
-        <v>301</v>
-      </c>
       <c r="BJ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BK2" t="s">
         <v>325</v>
       </c>
-      <c r="BK2" t="s">
-        <v>301</v>
-      </c>
       <c r="BL2" t="s">
         <v>301</v>
       </c>
@@ -3015,20 +3025,20 @@
         <v>301</v>
       </c>
       <c r="BN2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO2" t="s">
         <v>317</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>318</v>
       </c>
-      <c r="BR2" t="s">
-        <v>301</v>
-      </c>
       <c r="BS2" t="s">
         <v>301</v>
       </c>
@@ -3036,11 +3046,11 @@
         <v>301</v>
       </c>
       <c r="BU2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BV2" t="s">
         <v>309</v>
       </c>
-      <c r="BV2" t="s">
-        <v>301</v>
-      </c>
       <c r="BW2" t="s">
         <v>301</v>
       </c>
@@ -3090,16 +3100,16 @@
         <v>301</v>
       </c>
       <c r="CM2" t="s">
+        <v>301</v>
+      </c>
+      <c r="CN2" t="s">
         <v>328</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="CO2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="CP2" t="s">
-        <v>301</v>
+      <c r="CP2" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="CQ2" t="s">
         <v>301</v>
@@ -3117,11 +3127,11 @@
         <v>301</v>
       </c>
       <c r="CV2" t="s">
+        <v>301</v>
+      </c>
+      <c r="CW2" t="s">
         <v>329</v>
       </c>
-      <c r="CW2" t="s">
-        <v>301</v>
-      </c>
       <c r="CX2" t="s">
         <v>301</v>
       </c>
@@ -3150,11 +3160,11 @@
         <v>301</v>
       </c>
       <c r="DG2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DH2" t="s">
         <v>335</v>
       </c>
-      <c r="DH2" t="s">
-        <v>301</v>
-      </c>
       <c r="DI2" t="s">
         <v>301</v>
       </c>
@@ -3165,11 +3175,11 @@
         <v>301</v>
       </c>
       <c r="DL2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DM2" t="s">
         <v>338</v>
       </c>
-      <c r="DM2" t="s">
-        <v>301</v>
-      </c>
       <c r="DN2" t="s">
         <v>301</v>
       </c>
@@ -3183,13 +3193,13 @@
         <v>301</v>
       </c>
       <c r="DR2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DS2" t="s">
         <v>383</v>
       </c>
-      <c r="DS2" s="2" t="s">
+      <c r="DT2" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="DU2" s="2" t="s">
         <v>341</v>
@@ -3210,11 +3220,11 @@
         <v>341</v>
       </c>
       <c r="EA2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="EB2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="EB2" t="s">
-        <v>301</v>
-      </c>
       <c r="EC2" t="s">
         <v>301</v>
       </c>
@@ -3231,20 +3241,20 @@
         <v>301</v>
       </c>
       <c r="EH2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EI2" t="s">
         <v>343</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EJ2" t="s">
         <v>344</v>
       </c>
-      <c r="EJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EK2" s="2" t="s">
+      <c r="EK2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EL2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="EL2" t="s">
-        <v>301</v>
-      </c>
       <c r="EM2" t="s">
         <v>301</v>
       </c>
@@ -3252,11 +3262,11 @@
         <v>301</v>
       </c>
       <c r="EO2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EP2" t="s">
         <v>345</v>
       </c>
-      <c r="EP2" t="s">
-        <v>301</v>
-      </c>
       <c r="EQ2" t="s">
         <v>301</v>
       </c>
@@ -3264,23 +3274,23 @@
         <v>301</v>
       </c>
       <c r="ES2" t="s">
+        <v>301</v>
+      </c>
+      <c r="ET2" t="s">
         <v>346</v>
       </c>
-      <c r="ET2" t="s">
-        <v>301</v>
-      </c>
       <c r="EU2" t="s">
         <v>301</v>
       </c>
       <c r="EV2" t="s">
         <v>301</v>
       </c>
-      <c r="EW2" s="3" t="s">
+      <c r="EW2" t="s">
+        <v>301</v>
+      </c>
+      <c r="EX2" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="EX2" t="s">
-        <v>301</v>
-      </c>
       <c r="EY2" t="s">
         <v>301</v>
       </c>
@@ -3288,16 +3298,16 @@
         <v>301</v>
       </c>
       <c r="FA2" t="s">
+        <v>301</v>
+      </c>
+      <c r="FB2" t="s">
         <v>347</v>
       </c>
-      <c r="FB2" t="s">
-        <v>301</v>
-      </c>
       <c r="FC2" t="s">
         <v>301</v>
       </c>
-      <c r="FD2" s="2" t="s">
-        <v>322</v>
+      <c r="FD2" t="s">
+        <v>301</v>
       </c>
       <c r="FE2" s="2" t="s">
         <v>322</v>
@@ -3305,8 +3315,8 @@
       <c r="FF2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="FG2" t="s">
-        <v>301</v>
+      <c r="FG2" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="FH2" t="s">
         <v>301</v>
@@ -3327,11 +3337,11 @@
         <v>301</v>
       </c>
       <c r="FN2" t="s">
+        <v>301</v>
+      </c>
+      <c r="FO2" t="s">
         <v>353</v>
       </c>
-      <c r="FO2" t="s">
-        <v>301</v>
-      </c>
       <c r="FP2" t="s">
         <v>301</v>
       </c>
@@ -3365,12 +3375,12 @@
       <c r="FZ2" t="s">
         <v>301</v>
       </c>
-      <c r="GA2" s="2" t="s">
+      <c r="GA2" t="s">
+        <v>301</v>
+      </c>
+      <c r="GB2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="GB2" t="s">
-        <v>301</v>
-      </c>
       <c r="GC2" t="s">
         <v>301</v>
       </c>
@@ -3410,24 +3420,24 @@
       <c r="GO2" t="s">
         <v>301</v>
       </c>
-      <c r="GP2" s="2" t="s">
+      <c r="GP2" t="s">
+        <v>301</v>
+      </c>
+      <c r="GQ2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="GQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GR2" s="2" t="s">
+      <c r="GR2" t="s">
+        <v>301</v>
+      </c>
+      <c r="GS2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="GS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GT2" s="2" t="s">
+      <c r="GT2" t="s">
+        <v>301</v>
+      </c>
+      <c r="GU2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="GU2" t="s">
-        <v>301</v>
-      </c>
       <c r="GV2" t="s">
         <v>301</v>
       </c>
@@ -3438,20 +3448,20 @@
         <v>301</v>
       </c>
       <c r="GY2" t="s">
+        <v>301</v>
+      </c>
+      <c r="GZ2" t="s">
         <v>356</v>
       </c>
-      <c r="GZ2" t="s">
-        <v>301</v>
-      </c>
       <c r="HA2" t="s">
         <v>301</v>
       </c>
-      <c r="HB2" s="2" t="s">
+      <c r="HB2" t="s">
+        <v>301</v>
+      </c>
+      <c r="HC2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="HC2" t="s">
-        <v>301</v>
-      </c>
       <c r="HD2" t="s">
         <v>301</v>
       </c>
@@ -3504,22 +3514,22 @@
         <v>301</v>
       </c>
       <c r="HU2" t="s">
+        <v>301</v>
+      </c>
+      <c r="HV2" t="s">
         <v>359</v>
       </c>
-      <c r="HV2" t="s">
-        <v>301</v>
-      </c>
       <c r="HW2" t="s">
         <v>301</v>
       </c>
       <c r="HX2" t="s">
+        <v>301</v>
+      </c>
+      <c r="HY2" t="s">
         <v>347</v>
       </c>
-      <c r="HY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HZ2" s="2" t="s">
-        <v>322</v>
+      <c r="HZ2" t="s">
+        <v>301</v>
       </c>
       <c r="IA2" s="2" t="s">
         <v>322</v>
@@ -3542,24 +3552,24 @@
       <c r="IG2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="IH2" t="s">
-        <v>301</v>
+      <c r="IH2" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="II2" t="s">
         <v>301</v>
       </c>
-      <c r="IJ2" s="2" t="s">
+      <c r="IJ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="IK2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="IK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IL2" s="2" t="s">
+      <c r="IL2" t="s">
+        <v>301</v>
+      </c>
+      <c r="IM2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="IM2" t="s">
-        <v>301</v>
-      </c>
       <c r="IN2" t="s">
         <v>301</v>
       </c>
@@ -3570,11 +3580,11 @@
         <v>301</v>
       </c>
       <c r="IQ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="IR2" t="s">
         <v>360</v>
       </c>
-      <c r="IR2" t="s">
-        <v>301</v>
-      </c>
       <c r="IS2" t="s">
         <v>301</v>
       </c>
@@ -3582,22 +3592,22 @@
         <v>301</v>
       </c>
       <c r="IU2" t="s">
+        <v>301</v>
+      </c>
+      <c r="IV2" t="s">
         <v>359</v>
       </c>
-      <c r="IV2" t="s">
-        <v>301</v>
-      </c>
       <c r="IW2" t="s">
         <v>301</v>
       </c>
       <c r="IX2" t="s">
+        <v>301</v>
+      </c>
+      <c r="IY2" t="s">
         <v>347</v>
       </c>
-      <c r="IY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IZ2" s="2" t="s">
-        <v>322</v>
+      <c r="IZ2" t="s">
+        <v>301</v>
       </c>
       <c r="JA2" s="2" t="s">
         <v>322</v>
@@ -3618,11 +3628,11 @@
         <v>322</v>
       </c>
       <c r="JG2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="JH2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="JH2" t="s">
-        <v>301</v>
-      </c>
       <c r="JI2" t="s">
         <v>301</v>
       </c>
@@ -3633,17 +3643,17 @@
         <v>301</v>
       </c>
       <c r="JL2" t="s">
+        <v>301</v>
+      </c>
+      <c r="JM2" t="s">
         <v>361</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="JN2" t="s">
         <v>362</v>
       </c>
-      <c r="JN2" s="2" t="s">
+      <c r="JO2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="JO2" t="s">
-        <v>301</v>
-      </c>
       <c r="JP2" t="s">
         <v>301</v>
       </c>
@@ -3651,11 +3661,11 @@
         <v>301</v>
       </c>
       <c r="JR2" t="s">
+        <v>301</v>
+      </c>
+      <c r="JS2" t="s">
         <v>363</v>
       </c>
-      <c r="JS2" t="s">
-        <v>301</v>
-      </c>
       <c r="JT2" t="s">
         <v>301</v>
       </c>
@@ -3663,23 +3673,23 @@
         <v>301</v>
       </c>
       <c r="JV2" t="s">
+        <v>301</v>
+      </c>
+      <c r="JW2" t="s">
         <v>364</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="JX2" t="s">
         <v>365</v>
       </c>
-      <c r="JX2" s="2" t="s">
+      <c r="JY2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="JZ2" t="s">
         <v>366</v>
       </c>
-      <c r="JZ2" s="2" t="s">
+      <c r="KA2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="KA2" t="s">
-        <v>301</v>
-      </c>
       <c r="KB2" t="s">
         <v>301</v>
       </c>
@@ -3702,41 +3712,41 @@
         <v>301</v>
       </c>
       <c r="KI2" t="s">
+        <v>301</v>
+      </c>
+      <c r="KJ2" t="s">
         <v>367</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="KK2" t="s">
         <v>368</v>
       </c>
-      <c r="KK2" s="2" t="s">
+      <c r="KL2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="KL2" t="s">
-        <v>301</v>
-      </c>
       <c r="KM2" t="s">
+        <v>301</v>
+      </c>
+      <c r="KN2" t="s">
         <v>369</v>
       </c>
-      <c r="KN2" t="s">
-        <v>301</v>
-      </c>
       <c r="KO2" t="s">
         <v>301</v>
       </c>
       <c r="KP2" t="s">
+        <v>301</v>
+      </c>
+      <c r="KQ2" t="s">
         <v>370</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>301</v>
-      </c>
       <c r="KR2" t="s">
         <v>301</v>
       </c>
       <c r="KS2" t="s">
+        <v>301</v>
+      </c>
+      <c r="KT2" t="s">
         <v>309</v>
       </c>
-      <c r="KT2" t="s">
-        <v>301</v>
-      </c>
       <c r="KU2" t="s">
         <v>301</v>
       </c>
@@ -3768,17 +3778,17 @@
         <v>301</v>
       </c>
       <c r="LE2" t="s">
+        <v>301</v>
+      </c>
+      <c r="LF2" t="s">
         <v>371</v>
       </c>
-      <c r="LF2" t="s">
-        <v>301</v>
-      </c>
       <c r="LG2" t="s">
+        <v>301</v>
+      </c>
+      <c r="LH2" t="s">
         <v>372</v>
       </c>
-      <c r="LH2" t="s">
-        <v>301</v>
-      </c>
       <c r="LI2" t="s">
         <v>301</v>
       </c>
@@ -3816,15 +3826,18 @@
         <v>301</v>
       </c>
       <c r="LU2" t="s">
+        <v>301</v>
+      </c>
+      <c r="LV2" t="s">
         <v>377</v>
       </c>
-      <c r="LV2" t="s">
-        <v>301</v>
-      </c>
       <c r="LW2" t="s">
+        <v>301</v>
+      </c>
+      <c r="LX2" t="s">
         <v>378</v>
       </c>
-      <c r="LX2" t="s">
+      <c r="LY2" t="s">
         <v>301</v>
       </c>
     </row>

--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1099DB-D299-4D14-8CE3-37AF67EC4FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB379A-7D98-4205-98E7-9F7B5A984680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="388">
   <si>
     <t>text_event_core_tab_creation_EventName</t>
   </si>
@@ -876,9 +876,6 @@
     <t>searchtext_event_creation_Draws_DrawNames_EnterDrawName</t>
   </si>
   <si>
-    <t>searchbutton_event_creation_Logos_AddLogos_SearchLogoType</t>
-  </si>
-  <si>
     <t>bartext_event_creation_Equipment_SelectedBallssearch</t>
   </si>
   <si>
@@ -1131,12 +1128,6 @@
     <t>TransportationInformationDropPlace</t>
   </si>
   <si>
-    <t>SponsorName</t>
-  </si>
-  <si>
-    <t>SponsorLink</t>
-  </si>
-  <si>
     <t>ittf</t>
   </si>
   <si>
@@ -1189,6 +1180,18 @@
   </si>
   <si>
     <t>loginpage.png</t>
+  </si>
+  <si>
+    <t>filebutton_event_creation_Logos_AddLogos_SelectImage</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Logos_AddLogos_SearchLogoType</t>
+  </si>
+  <si>
+    <t>logo.jpg</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LY2"/>
+  <dimension ref="A1:LZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="KJ1" workbookViewId="0">
+      <selection activeCell="KL2" sqref="KL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1640,182 +1643,183 @@
     <col min="139" max="140" width="39.375" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="41.125" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="52" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="33" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="96.75" customWidth="1"/>
-    <col min="173" max="173" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="61" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="43" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="190" max="192" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="100.625" customWidth="1"/>
-    <col min="203" max="203" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="34" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="43" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="76.375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="61" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="67.375" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="70" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="69.125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="60.125" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="81.75" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="84.5" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="95.25" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="61" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="78.125" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="71" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="77.25" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="83.625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="72.75" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="265" max="266" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="67.375" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="52" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="39.375" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="96.25" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="97.125" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="82.625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="34" bestFit="1" customWidth="1"/>
-    <col min="296" max="297" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="53.75" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="61.875" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="71" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="68.25" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="36.625" hidden="1" customWidth="1"/>
-    <col min="309" max="309" width="32.125" hidden="1" customWidth="1"/>
-    <col min="310" max="310" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="45.625" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="52" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="61" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="49.25" customWidth="1"/>
-    <col min="323" max="323" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="47.5" customWidth="1"/>
-    <col min="325" max="325" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="62.875" bestFit="1" customWidth="1"/>
-    <col min="330" max="331" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="64.625" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="52" customWidth="1"/>
+    <col min="144" max="144" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="33" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="96.75" customWidth="1"/>
+    <col min="174" max="174" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="61" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="43" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="191" max="193" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="197" max="198" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="100.625" customWidth="1"/>
+    <col min="204" max="204" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="34" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="43" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="61" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="70" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="69.125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="81.75" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="84.5" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="95.25" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="61" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="71" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="83.625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="72.75" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="79.125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="52" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="96.25" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="97.125" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="82.625" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="34" bestFit="1" customWidth="1"/>
+    <col min="297" max="298" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="53.75" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="58.375" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="71" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="68.25" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="36.625" hidden="1" customWidth="1"/>
+    <col min="310" max="310" width="32.125" hidden="1" customWidth="1"/>
+    <col min="311" max="311" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="52" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="61" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="49.25" customWidth="1"/>
+    <col min="324" max="324" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="47.5" customWidth="1"/>
+    <col min="326" max="326" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="62.875" bestFit="1" customWidth="1"/>
+    <col min="331" max="332" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:337" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1850,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1859,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -1877,19 +1881,19 @@
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>19</v>
@@ -1922,10 +1926,10 @@
         <v>27</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>270</v>
@@ -1934,16 +1938,16 @@
         <v>28</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>30</v>
@@ -1967,7 +1971,7 @@
         <v>34</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>35</v>
@@ -2009,10 +2013,10 @@
         <v>41</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>42</v>
@@ -2120,7 +2124,7 @@
         <v>75</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CY1" s="1" t="s">
         <v>76</v>
@@ -2129,16 +2133,16 @@
         <v>77</v>
       </c>
       <c r="DA1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="DB1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>78</v>
@@ -2153,13 +2157,13 @@
         <v>280</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>82</v>
@@ -2171,22 +2175,22 @@
         <v>83</v>
       </c>
       <c r="DO1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="DP1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="DQ1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="DR1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="DT1" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="DU1" s="1" t="s">
         <v>85</v>
@@ -2240,1605 +2244,1611 @@
         <v>101</v>
       </c>
       <c r="EL1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="EM1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="EP1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="EU1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="EQ1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="EY1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="EU1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="FC1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="EY1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="HA1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="FC1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="FM1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:338" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M2" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>300</v>
+      </c>
+      <c r="R2" t="s">
+        <v>300</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="T2" t="s">
+        <v>300</v>
+      </c>
+      <c r="U2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V2" t="s">
+        <v>300</v>
+      </c>
+      <c r="W2" t="s">
+        <v>383</v>
+      </c>
+      <c r="X2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>327</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>328</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>337</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>342</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>343</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>344</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>300</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>300</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>345</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="EY2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>346</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FF2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="FH2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FP2" t="s">
         <v>352</v>
       </c>
-      <c r="FN1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GC2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GR2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GT2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GV2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HA2" t="s">
         <v>355</v>
       </c>
-      <c r="FR1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HD2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HW2" t="s">
         <v>358</v>
       </c>
-      <c r="HH1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="KN1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="KO1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="KP1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="KR1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="KS1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="KT1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="KU1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="KV1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="LF1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="LG1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="LH1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="LI1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="LK1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="LL1" s="1" t="s">
+      <c r="HX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>346</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IB2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IC2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="ID2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IE2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IF2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IG2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IH2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="II2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IL2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IN2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>359</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>358</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>346</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JB2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JC2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JD2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JE2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JF2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JG2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JH2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JI2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>360</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>361</v>
+      </c>
+      <c r="JP2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>362</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>300</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>363</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>364</v>
+      </c>
+      <c r="JZ2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>365</v>
+      </c>
+      <c r="KB2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>341</v>
+      </c>
+      <c r="KM2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>366</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>367</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>308</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>300</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>368</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>369</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LW2" t="s">
         <v>374</v>
       </c>
-      <c r="LM1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="LN1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="LO1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LX2" t="s">
+        <v>300</v>
+      </c>
+      <c r="LY2" t="s">
         <v>375</v>
       </c>
-      <c r="LQ1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="LS1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="LT1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="LU1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="LV1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="LW1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="LX1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="LY1" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:337" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" t="s">
-        <v>301</v>
-      </c>
-      <c r="L2" t="s">
-        <v>301</v>
-      </c>
-      <c r="M2" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O2" t="s">
-        <v>306</v>
-      </c>
-      <c r="P2" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>301</v>
-      </c>
-      <c r="R2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="T2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V2" t="s">
-        <v>301</v>
-      </c>
-      <c r="W2" t="s">
-        <v>386</v>
-      </c>
-      <c r="X2" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>318</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>309</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>328</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>329</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>335</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>338</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>383</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>343</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>344</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>345</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>301</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>301</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>346</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EX2" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>347</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FE2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="FF2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="FG2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>353</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GB2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GQ2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GS2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GU2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>356</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HC2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>359</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>347</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IA2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IB2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IC2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="ID2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IE2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IF2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IG2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IH2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="II2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IK2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IM2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>360</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>359</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>347</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JA2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JB2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JC2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JD2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JE2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JF2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JG2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JH2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>361</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>362</v>
-      </c>
-      <c r="JO2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>363</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>364</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>365</v>
-      </c>
-      <c r="JY2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>366</v>
-      </c>
-      <c r="KA2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>367</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="KL2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>369</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>370</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>309</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>301</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>371</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>372</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>377</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>301</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>378</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>301</v>
+      <c r="LZ2" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB379A-7D98-4205-98E7-9F7B5A984680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECC8703-A101-4ABA-B013-BDA93BB237F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:LZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KJ1" workbookViewId="0">
-      <selection activeCell="KL2" sqref="KL2"/>
+    <sheetView tabSelected="1" topLeftCell="EK1" workbookViewId="0">
+      <selection activeCell="EM2" sqref="EM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/main/java/testdata/Eventcreation.xlsx
+++ b/src/main/java/testdata/Eventcreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECC8703-A101-4ABA-B013-BDA93BB237F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE19BD-CA1D-4A88-843A-D7247B470474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,9 +255,6 @@
     <t>button_event_creation_KeyPersonsIndividualName</t>
   </si>
   <si>
-    <t>text_event_creation_KeyPersonsIndividualNamesearch</t>
-  </si>
-  <si>
     <t>button_event_creation_KeyPersonsProceed</t>
   </si>
   <si>
@@ -921,9 +918,6 @@
     <t>searchtext_event_creation_Documents_AddDocuments_Categorysearch</t>
   </si>
   <si>
-    <t>ITTF</t>
-  </si>
-  <si>
     <t>searchtext_event_core_tab_creation_searchEventCoreType</t>
   </si>
   <si>
@@ -969,12 +963,6 @@
     <t>button_event_creation_TournamentCategory</t>
   </si>
   <si>
-    <t>Challenge</t>
-  </si>
-  <si>
-    <t>Continental</t>
-  </si>
-  <si>
     <t>10 Total and 3 Qualification</t>
   </si>
   <si>
@@ -1014,184 +1002,196 @@
     <t>Accreditation Code</t>
   </si>
   <si>
-    <t>Abdul Razaq Siawashma</t>
+    <t>button_event_creation_Dates_Startingdate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Startingdatedatepicker</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Enddate</t>
+  </si>
+  <si>
+    <t>button_event_creation_Dates_Enddatedatedatepicker</t>
+  </si>
+  <si>
+    <t>Main Draw</t>
+  </si>
+  <si>
+    <t>date_event_creation_Draws_StartDateTime</t>
+  </si>
+  <si>
+    <t>date_event_creation_Draws_EndDate</t>
+  </si>
+  <si>
+    <t>Draw Name</t>
+  </si>
+  <si>
+    <t>checkbox_event_creation_Draws_DrawNames_SelectDefaultLanguageCode_EnglishUS</t>
+  </si>
+  <si>
+    <t>button_event_creation_Draws_Proceed</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>LogoName</t>
+  </si>
+  <si>
+    <t>LogoArea</t>
+  </si>
+  <si>
+    <t>xush</t>
+  </si>
+  <si>
+    <t>joola</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_TravelDetailsDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_CancellationDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_ParticipantRegistrationDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_AccommodationDetailsDeadline</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_VisaDetailsDeadline</t>
+  </si>
+  <si>
+    <t>DeadlineName</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_AdditionalDeadlines_StartDateTime</t>
+  </si>
+  <si>
+    <t>date_event_creation_OnlineEntrySystem_AdditionalDeadlines_EndDateTime</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>date_event_creation_Hospitality_AllowedFirstArrivalDate</t>
+  </si>
+  <si>
+    <t>date_event_creation_Hospitality_AllowedLastDepartureDate</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>referee</t>
+  </si>
+  <si>
+    <t>MiscellaneousName</t>
+  </si>
+  <si>
+    <t>MiscellaneousDescription</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>TransportationInformationName</t>
+  </si>
+  <si>
+    <t>TransportationInformationPickupPlace</t>
+  </si>
+  <si>
+    <t>TransportationInformationDropPlace</t>
+  </si>
+  <si>
+    <t>ittf</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_ValidFrom_datepicker</t>
+  </si>
+  <si>
+    <t>button_event_creation_Documents_AddDocuments_ValidTo_datepicker</t>
+  </si>
+  <si>
+    <t>date_event_creation_Accreditation_AddAccreditationInformation_StartDate</t>
+  </si>
+  <si>
+    <t>date_event_creation_Accreditation_AddAccreditationInformation_EndDate</t>
+  </si>
+  <si>
+    <t>VisaInformation</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>button_event_creation_TournamentAgeCategoryupicon</t>
+  </si>
+  <si>
+    <t>button_event_creation_next</t>
+  </si>
+  <si>
+    <t>button_event_creation_MatchConfiguration_IndividualMatchType</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_MatchConfiguration_IndividualMatchType</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>text_event_creation_MatchConfiguration__BestOfXGames</t>
+  </si>
+  <si>
+    <t>filebutton_event_core_tab_creation_TournamentLogo</t>
+  </si>
+  <si>
+    <t>loginpage.png</t>
+  </si>
+  <si>
+    <t>filebutton_event_creation_Logos_AddLogos_SelectImage</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>searchtext_event_creation_Logos_AddLogos_SearchLogoType</t>
+  </si>
+  <si>
+    <t>logo.jpg</t>
+  </si>
+  <si>
+    <t>WTT</t>
+  </si>
+  <si>
+    <t>WTT - Senior</t>
+  </si>
+  <si>
+    <t>wtt champions</t>
+  </si>
+  <si>
+    <t>dimosthenis</t>
   </si>
   <si>
     <t>checkbox_event_creation_KeyPersonsIndividualNamesearchresult</t>
   </si>
   <si>
-    <t>button_event_creation_Dates_Startingdate</t>
-  </si>
-  <si>
-    <t>button_event_creation_Dates_Startingdatedatepicker</t>
-  </si>
-  <si>
-    <t>button_event_creation_Dates_Enddate</t>
-  </si>
-  <si>
-    <t>button_event_creation_Dates_Enddatedatedatepicker</t>
-  </si>
-  <si>
-    <t>Main Draw</t>
-  </si>
-  <si>
-    <t>date_event_creation_Draws_StartDateTime</t>
-  </si>
-  <si>
-    <t>date_event_creation_Draws_EndDate</t>
-  </si>
-  <si>
-    <t>Draw Name</t>
-  </si>
-  <si>
-    <t>checkbox_event_creation_Draws_DrawNames_SelectDefaultLanguageCode_EnglishUS</t>
-  </si>
-  <si>
-    <t>button_event_creation_Draws_Proceed</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>LogoName</t>
-  </si>
-  <si>
-    <t>LogoArea</t>
-  </si>
-  <si>
-    <t>xush</t>
-  </si>
-  <si>
-    <t>joola</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_TravelDetailsDeadline</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_CancellationDeadline</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_ParticipantRegistrationDeadline</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_AccommodationDetailsDeadline</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_VisaDetailsDeadline</t>
-  </si>
-  <si>
-    <t>DeadlineName</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_AdditionalDeadlines_StartDateTime</t>
-  </si>
-  <si>
-    <t>date_event_creation_OnlineEntrySystem_AdditionalDeadlines_EndDateTime</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>date_event_creation_Hospitality_AllowedFirstArrivalDate</t>
-  </si>
-  <si>
-    <t>date_event_creation_Hospitality_AllowedLastDepartureDate</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>referee</t>
-  </si>
-  <si>
-    <t>MiscellaneousName</t>
-  </si>
-  <si>
-    <t>MiscellaneousDescription</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>TransportationInformationName</t>
-  </si>
-  <si>
-    <t>TransportationInformationPickupPlace</t>
-  </si>
-  <si>
-    <t>TransportationInformationDropPlace</t>
-  </si>
-  <si>
-    <t>ittf</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>button_event_creation_Documents_AddDocuments_ValidFrom_datepicker</t>
-  </si>
-  <si>
-    <t>button_event_creation_Documents_AddDocuments_ValidTo_datepicker</t>
-  </si>
-  <si>
-    <t>date_event_creation_Accreditation_AddAccreditationInformation_StartDate</t>
-  </si>
-  <si>
-    <t>date_event_creation_Accreditation_AddAccreditationInformation_EndDate</t>
-  </si>
-  <si>
-    <t>VisaInformation</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>button_event_creation_TournamentAgeCategoryupicon</t>
-  </si>
-  <si>
-    <t>button_event_creation_next</t>
-  </si>
-  <si>
-    <t>button_event_creation_MatchConfiguration_IndividualMatchType</t>
-  </si>
-  <si>
-    <t>searchtext_event_creation_MatchConfiguration_IndividualMatchType</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>text_event_creation_MatchConfiguration__BestOfXGames</t>
-  </si>
-  <si>
-    <t>filebutton_event_core_tab_creation_TournamentLogo</t>
-  </si>
-  <si>
-    <t>loginpage.png</t>
-  </si>
-  <si>
-    <t>filebutton_event_creation_Logos_AddLogos_SelectImage</t>
-  </si>
-  <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>searchtext_event_creation_Logos_AddLogos_SearchLogoType</t>
-  </si>
-  <si>
-    <t>logo.jpg</t>
+    <t>textsearchbar_event_creation_KeyPersonsIndividualNamesearch</t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:LZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EK1" workbookViewId="0">
-      <selection activeCell="EM2" sqref="EM2"/>
+    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
+      <selection activeCell="CW1" sqref="CW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1606,7 @@
     <col min="98" max="98" width="35.75" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="55.625" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="53.75" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="54.75" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="35.75" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="22.25" bestFit="1" customWidth="1"/>
@@ -1833,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1854,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -1863,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -1881,19 +1881,19 @@
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>19</v>
@@ -1917,7 +1917,7 @@
         <v>25</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>26</v>
@@ -1926,34 +1926,34 @@
         <v>27</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>31</v>
@@ -1965,58 +1965,58 @@
         <v>33</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>42</v>
@@ -2040,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>49</v>
@@ -2121,1734 +2121,1734 @@
         <v>74</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DI1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CY1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DK1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="DB1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DO1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="DE1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="DN1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="EP1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="EU1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="ER1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EY1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="EV1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="FC1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="EZ1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="HA1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="FD1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="FM1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="HG1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="FO1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="HW1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="HB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="HX1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="HY1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="IS1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="IA1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="IW1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="IT1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="IX1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="IY1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JB1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="KO1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="JA1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="JP1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="JQ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="JR1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="JS1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="JT1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="JU1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="JV1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="JW1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="JX1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="JY1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="JZ1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="KA1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="KB1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="KC1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="KD1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="KE1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="KF1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="KG1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="KH1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="KI1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="KJ1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="KK1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="KL1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="KM1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="KN1" s="1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="KQ1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="KR1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="KP1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="KS1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="KT1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="KU1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="KS1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="LG1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="KV1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="KW1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="KX1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="KY1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="KZ1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="LA1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="LB1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="LC1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="LD1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="LE1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="LF1" s="1" t="s">
+      <c r="LH1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="LI1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="LI1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="LK1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="LL1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="LK1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="LL1" s="1" t="s">
+      <c r="LM1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="LN1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="LM1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="LN1" s="1" t="s">
+      <c r="LO1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="LP1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LQ1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="LS1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="LQ1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="LR1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="LS1" s="1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="LU1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="LV1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="LW1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="LX1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c r="LY1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="LY1" s="1" t="s">
+      <c r="LZ1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="LZ1" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:338" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" t="s">
+        <v>298</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="T2" t="s">
+        <v>298</v>
+      </c>
+      <c r="U2" t="s">
         <v>304</v>
       </c>
-      <c r="D2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J2" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M2" t="s">
-        <v>300</v>
-      </c>
-      <c r="N2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
+        <v>298</v>
+      </c>
+      <c r="W2" t="s">
+        <v>377</v>
+      </c>
+      <c r="X2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y2" t="s">
         <v>305</v>
       </c>
-      <c r="P2" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>300</v>
-      </c>
-      <c r="R2" t="s">
-        <v>300</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="T2" t="s">
-        <v>300</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG2" t="s">
         <v>306</v>
       </c>
-      <c r="V2" t="s">
-        <v>300</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>383</v>
       </c>
-      <c r="X2" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN2" t="s">
         <v>307</v>
       </c>
-      <c r="Z2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BR2" t="s">
         <v>313</v>
       </c>
-      <c r="AK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>315</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>316</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>306</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>323</v>
+      </c>
+      <c r="CO2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="BS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>327</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="CP2" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="CQ2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CR2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CS2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CT2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CU2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CV2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="CW2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH2" t="s">
         <v>328</v>
       </c>
-      <c r="CX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>331</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>374</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DU2" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="DI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DM2" t="s">
+      <c r="DV2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>336</v>
+      </c>
+      <c r="EJ2" t="s">
         <v>337</v>
       </c>
-      <c r="DN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="DU2" s="2" t="s">
+      <c r="EK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EL2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="EM2" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>338</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>339</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="DV2" s="2" t="s">
+      <c r="EZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FC2" t="s">
         <v>340</v>
       </c>
-      <c r="DW2" s="2" t="s">
+      <c r="FD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FF2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FH2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>346</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GC2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GR2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GT2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GV2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>349</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HD2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>352</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>340</v>
       </c>
-      <c r="DX2" s="2" t="s">
+      <c r="IA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IB2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IC2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="ID2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IE2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IF2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IG2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IH2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="II2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IL2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IN2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>353</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>352</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="IZ2" t="s">
         <v>340</v>
       </c>
-      <c r="DY2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>342</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>343</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>344</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>300</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>300</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>345</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="EY2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>346</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FF2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="FG2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="FH2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>352</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GC2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GR2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GT2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GV2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HA2" t="s">
+      <c r="JA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JB2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JC2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JD2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JE2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JF2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JG2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JH2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JI2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>354</v>
+      </c>
+      <c r="JO2" t="s">
         <v>355</v>
       </c>
-      <c r="HB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HD2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HW2" t="s">
+      <c r="JP2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>356</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>357</v>
+      </c>
+      <c r="JY2" t="s">
         <v>358</v>
       </c>
-      <c r="HX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>346</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IB2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IC2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="ID2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IE2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IF2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IG2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IH2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="II2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IL2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IN2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IS2" t="s">
+      <c r="JZ2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="KA2" t="s">
         <v>359</v>
       </c>
-      <c r="IT2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>358</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>346</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JB2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JC2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JD2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JE2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JF2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JG2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JH2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JI2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JN2" t="s">
+      <c r="KB2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>335</v>
+      </c>
+      <c r="KM2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO2" t="s">
         <v>360</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KR2" t="s">
         <v>361</v>
       </c>
-      <c r="JP2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JT2" t="s">
+      <c r="KS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>306</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LG2" t="s">
         <v>362</v>
       </c>
-      <c r="JU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>300</v>
-      </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LI2" t="s">
         <v>363</v>
       </c>
-      <c r="JY2" t="s">
-        <v>364</v>
-      </c>
-      <c r="JZ2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>365</v>
-      </c>
-      <c r="KB2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>341</v>
-      </c>
-      <c r="KM2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>366</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>367</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>308</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>300</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LG2" t="s">
+      <c r="LJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LW2" t="s">
         <v>368</v>
       </c>
-      <c r="LH2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LI2" t="s">
+      <c r="LX2" t="s">
+        <v>298</v>
+      </c>
+      <c r="LY2" t="s">
         <v>369</v>
       </c>
-      <c r="LJ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>374</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>300</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>375</v>
-      </c>
       <c r="LZ2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
